--- a/positions.xlsx
+++ b/positions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="90">
   <si>
     <t>loc</t>
   </si>
@@ -240,6 +240,18 @@
   </si>
   <si>
     <t>Shiqi Xu, Shan Chen, Jialing Cai, _**Tao Yan**_, Mengxin Tu, Ruisen Wang, Shuijin Hua, Lixi Jiang</t>
+  </si>
+  <si>
+    <t>_**The Plant Journal**_. 2025, 121(2):e17218.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://doi.org/10.1111/tpj.17218" target="_blank"&gt;Differentiation of genome-wide DNA methylation between japonica and indica rice&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Tao Yan, Liuhui Kuang, Fei Gao, Jian Chen, Lin Li, Dezhi Wu</t>
+  </si>
+  <si>
+    <t>Impact Factor = 6.25</t>
   </si>
   <si>
     <t>Third-class Scholarship and Merit Student</t>
@@ -1429,13 +1441,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="9" max="9" width="24.75" customWidth="1"/>
+    <col min="10" max="10" width="25.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
@@ -1690,7 +1708,7 @@
         <v>26</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1722,7 +1740,7 @@
         <v>26</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1754,7 +1772,7 @@
         <v>26</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1847,7 +1865,7 @@
         <v>26</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1937,36 +1955,36 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" customFormat="1" spans="1:10">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>2013</v>
+        <v>2025</v>
       </c>
       <c r="E17">
-        <v>2014</v>
+        <v>2025</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1974,17 +1992,17 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18">
+        <v>2013</v>
+      </c>
+      <c r="E18">
         <v>2014</v>
       </c>
-      <c r="E18">
-        <v>2015</v>
-      </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
@@ -1995,7 +2013,7 @@
         <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
@@ -2006,16 +2024,16 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E19">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -2027,7 +2045,7 @@
         <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
@@ -2038,16 +2056,16 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
       </c>
       <c r="D20">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E20">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -2059,7 +2077,7 @@
         <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
@@ -2070,7 +2088,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -2091,7 +2109,7 @@
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -2102,17 +2120,17 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22">
+        <v>2019</v>
+      </c>
+      <c r="E22">
         <v>2020</v>
       </c>
-      <c r="E22">
-        <v>2021</v>
-      </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
@@ -2123,7 +2141,7 @@
         <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s">
         <v>13</v>
@@ -2134,7 +2152,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -2155,7 +2173,7 @@
         <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s">
         <v>13</v>
@@ -2163,22 +2181,22 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E24">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -2187,7 +2205,7 @@
         <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s">
         <v>13</v>
@@ -2195,33 +2213,65 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
         <v>83</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>84</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25">
+        <v>2019</v>
+      </c>
+      <c r="E25">
+        <v>2019</v>
+      </c>
+      <c r="F25" t="s">
         <v>85</v>
       </c>
-      <c r="D25">
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26">
         <v>2020</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>2020</v>
       </c>
-      <c r="F25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>82</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" t="s">
         <v>13</v>
       </c>
     </row>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -248,7 +248,7 @@
     <t>&lt;a href="https://doi.org/10.1111/tpj.17218" target="_blank"&gt;Differentiation of genome-wide DNA methylation between japonica and indica rice&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Tao Yan, Liuhui Kuang, Fei Gao, Jian Chen, Lin Li, Dezhi Wu</t>
+    <t>_**Tao Yan**_, Liuhui Kuang, Fei Gao, Jian Chen, Lin Li, Dezhi Wu</t>
   </si>
   <si>
     <t>Impact Factor = 6.25</t>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1975,7 +1975,7 @@
         <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
         <v>74</v>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -143,7 +143,7 @@
     <t>Xuan, L.^#^, _**Yan, T.**_^#^, Lu, L., Zhao, X., Wu, D., Hua, S., **Jiang, L.**^\*^</t>
   </si>
   <si>
-    <t>Co-first author</t>
+    <t>_**Co-first author**_</t>
   </si>
   <si>
     <t>_**Computational and Structural Biotechnology Journal**_. 2020, 18:2766-2773.</t>
@@ -155,7 +155,7 @@
     <t>_**Yan, T.**_, Wang, Q., Maodzeka, A., Wu, D., **Jiang, L.**^\*^</t>
   </si>
   <si>
-    <t>First author</t>
+    <t>_**First author**_</t>
   </si>
   <si>
     <t>Impact Factor = 7.409</t>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1856,7 +1856,7 @@
         <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>

--- a/positions.xlsx
+++ b/positions.xlsx
@@ -143,7 +143,7 @@
     <t>Xuan, L.^#^, _**Yan, T.**_^#^, Lu, L., Zhao, X., Wu, D., Hua, S., **Jiang, L.**^\*^</t>
   </si>
   <si>
-    <t>_**Co-first author**_</t>
+    <t>**Co-first author**</t>
   </si>
   <si>
     <t>_**Computational and Structural Biotechnology Journal**_. 2020, 18:2766-2773.</t>
@@ -155,7 +155,7 @@
     <t>_**Yan, T.**_, Wang, Q., Maodzeka, A., Wu, D., **Jiang, L.**^\*^</t>
   </si>
   <si>
-    <t>_**First author**_</t>
+    <t>**First author**</t>
   </si>
   <si>
     <t>Impact Factor = 7.409</t>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
